--- a/Historicos/Historic_final_Bruno Pimentel.xlsx
+++ b/Historicos/Historic_final_Bruno Pimentel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,7 +455,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>time_setup</t>
+          <t>opentime</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +480,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>time_setup2</t>
+          <t>closetime</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -569,8 +568,8 @@
       <c r="M2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>0.0009375</v>
+      <c r="N2" t="n">
+        <v>81</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
@@ -631,8 +630,8 @@
       <c r="M3" t="n">
         <v>-0.6</v>
       </c>
-      <c r="N3" s="3" t="n">
-        <v>0.005567129629629629</v>
+      <c r="N3" t="n">
+        <v>481</v>
       </c>
       <c r="O3" t="n">
         <v>10000</v>
@@ -693,8 +692,8 @@
       <c r="M4" t="n">
         <v>185.21</v>
       </c>
-      <c r="N4" s="3" t="n">
-        <v>2.398252314814815</v>
+      <c r="N4" t="n">
+        <v>207209</v>
       </c>
       <c r="O4" t="n">
         <v>100</v>
@@ -755,8 +754,8 @@
       <c r="M5" t="n">
         <v>-335.09</v>
       </c>
-      <c r="N5" s="3" t="n">
-        <v>0.07472222222222222</v>
+      <c r="N5" t="n">
+        <v>6456</v>
       </c>
       <c r="O5" t="n">
         <v>10000</v>
@@ -817,8 +816,8 @@
       <c r="M6" t="n">
         <v>24.18</v>
       </c>
-      <c r="N6" s="3" t="n">
-        <v>1.241296296296296</v>
+      <c r="N6" t="n">
+        <v>107248</v>
       </c>
       <c r="O6" t="n">
         <v>100</v>
@@ -879,8 +878,8 @@
       <c r="M7" t="n">
         <v>-688.7</v>
       </c>
-      <c r="N7" s="3" t="n">
-        <v>1.00005787037037</v>
+      <c r="N7" t="n">
+        <v>86405</v>
       </c>
       <c r="O7" t="n">
         <v>10000</v>
@@ -941,8 +940,8 @@
       <c r="M8" t="n">
         <v>1.8</v>
       </c>
-      <c r="N8" s="3" t="n">
-        <v>1.804189814814815</v>
+      <c r="N8" t="n">
+        <v>155882</v>
       </c>
       <c r="O8" t="n">
         <v>100</v>
@@ -1003,8 +1002,8 @@
       <c r="M9" t="n">
         <v>-10</v>
       </c>
-      <c r="N9" s="3" t="n">
-        <v>8.789050925925926</v>
+      <c r="N9" t="n">
+        <v>759374</v>
       </c>
       <c r="O9" t="n">
         <v>100</v>
@@ -1065,8 +1064,8 @@
       <c r="M10" t="n">
         <v>14.24</v>
       </c>
-      <c r="N10" s="3" t="n">
-        <v>1.863402777777778</v>
+      <c r="N10" t="n">
+        <v>160998</v>
       </c>
       <c r="O10" t="n">
         <v>100</v>
@@ -1127,8 +1126,8 @@
       <c r="M11" t="n">
         <v>946.53</v>
       </c>
-      <c r="N11" s="3" t="n">
-        <v>0.167662037037037</v>
+      <c r="N11" t="n">
+        <v>14486</v>
       </c>
       <c r="O11" t="n">
         <v>10000</v>
@@ -1189,8 +1188,8 @@
       <c r="M12" t="n">
         <v>1180</v>
       </c>
-      <c r="N12" s="3" t="n">
-        <v>0.7984143518518518</v>
+      <c r="N12" t="n">
+        <v>68983</v>
       </c>
       <c r="O12" t="n">
         <v>10000</v>
@@ -1249,7 +1248,7 @@
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
@@ -1311,8 +1310,8 @@
       <c r="M14" t="n">
         <v>-394.63</v>
       </c>
-      <c r="N14" s="3" t="n">
-        <v>0.6769675925925925</v>
+      <c r="N14" t="n">
+        <v>58490</v>
       </c>
       <c r="O14" t="n">
         <v>100</v>
@@ -1373,8 +1372,8 @@
       <c r="M15" t="n">
         <v>89.56</v>
       </c>
-      <c r="N15" s="3" t="n">
-        <v>0.7899421296296296</v>
+      <c r="N15" t="n">
+        <v>68251</v>
       </c>
       <c r="O15" t="n">
         <v>100</v>
@@ -1435,8 +1434,8 @@
       <c r="M16" t="n">
         <v>564.55</v>
       </c>
-      <c r="N16" s="3" t="n">
-        <v>0.7453819444444445</v>
+      <c r="N16" t="n">
+        <v>64401</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
@@ -1497,8 +1496,8 @@
       <c r="M17" t="n">
         <v>430.93</v>
       </c>
-      <c r="N17" s="3" t="n">
-        <v>0.08702546296296296</v>
+      <c r="N17" t="n">
+        <v>7519</v>
       </c>
       <c r="O17" t="n">
         <v>10000</v>
@@ -1557,7 +1556,7 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
@@ -1619,8 +1618,8 @@
       <c r="M19" t="n">
         <v>9.9</v>
       </c>
-      <c r="N19" s="3" t="n">
-        <v>0.9089351851851852</v>
+      <c r="N19" t="n">
+        <v>78532</v>
       </c>
       <c r="O19" t="n">
         <v>100</v>
@@ -1681,8 +1680,8 @@
       <c r="M20" t="n">
         <v>2.13</v>
       </c>
-      <c r="N20" s="3" t="n">
-        <v>0.07626157407407408</v>
+      <c r="N20" t="n">
+        <v>6589</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
@@ -1743,8 +1742,8 @@
       <c r="M21" t="n">
         <v>2.24</v>
       </c>
-      <c r="N21" s="3" t="n">
-        <v>0.9063194444444445</v>
+      <c r="N21" t="n">
+        <v>78306</v>
       </c>
       <c r="O21" t="n">
         <v>100</v>

--- a/Historicos/Historic_final_Bruno Pimentel.xlsx
+++ b/Historicos/Historic_final_Bruno Pimentel.xlsx
@@ -1,40 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>volume_initial</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>closetime</t>
+  </si>
+  <si>
+    <t>second_price</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>pip_size</t>
+  </si>
+  <si>
+    <t>pips</t>
+  </si>
+  <si>
+    <t>pips_acum</t>
+  </si>
+  <si>
+    <t>profit_acum</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+  </si>
+  <si>
+    <t>AUDCHF</t>
+  </si>
+  <si>
+    <t>AMZN.O</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>MMM.N</t>
+  </si>
+  <si>
+    <t>AAPL.O</t>
+  </si>
+  <si>
+    <t>FB.O</t>
+  </si>
+  <si>
+    <t>EURGBP</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>AAL.O</t>
+  </si>
+  <si>
+    <t>TM.N</t>
+  </si>
+  <si>
+    <t>IR.N</t>
+  </si>
+  <si>
+    <t>PFE.N</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>1.17711</t>
+  </si>
+  <si>
+    <t>0.66636</t>
+  </si>
+  <si>
+    <t>1.27182</t>
+  </si>
+  <si>
+    <t>140.39</t>
+  </si>
+  <si>
+    <t>129.504</t>
+  </si>
+  <si>
+    <t>150.000</t>
+  </si>
+  <si>
+    <t>3386.17</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>0.85562</t>
+  </si>
+  <si>
+    <t>1.35700</t>
+  </si>
+  <si>
+    <t>151.420</t>
+  </si>
+  <si>
+    <t>111.510</t>
+  </si>
+  <si>
+    <t>0.67391</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>51.05</t>
+  </si>
+  <si>
+    <t>42.05</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +213,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1341 +530,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>position_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>opentime</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume_initial</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sl</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closetime</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>second_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>profit</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tiempo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pip_size</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>pips</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>pips_acum</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>profit_acum</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>45386469</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
         <v>44456.66384259259</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.17763</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>44456.66478009259</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1.17755</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>-0.08</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>81</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>10000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-0.7999999999985796</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>-0.7999999999985796</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>45386511</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
         <v>44456.665</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.01</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.17771</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.17711</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>44456.67056712963</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1.17711</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>-0.6</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>481</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>10000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>-5.999999999999339</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>-6.799999999997919</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>-0.6799999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>45429195</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GBPJPY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
         <v>44460.00935185186</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>149.595</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>134.31</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>150.000</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
         <v>44462.40760416666</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>150.002</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>-2.63</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>185.21</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>207209</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>40.70000000000107</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>33.90000000000315</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>184.53</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>45442638</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AUDCHF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
         <v>44460.67627314815</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.05</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.66909</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.66636</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
         <v>0.67275</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>44460.75099537037</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.66635</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>-335.09</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>6456</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>10000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-27.39999999999965</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>6.500000000003499</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>-150.56</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>45443462</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AMZN.O</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
         <v>44460.69081018519</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3361.99</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>3269.55</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3386.17</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2">
         <v>44461.93210648148</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>3386.17</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-0.27</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>24.18</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>107248</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>2418.000000000029</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>2424.500000000033</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>-126.38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>45452756</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2">
         <v>44460.87806712963</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.28073</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.27182</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
         <v>1.28363</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>44461.878125</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>1.27197</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-3.13</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>-688.7</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>86405</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>10000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>-87.59999999999879</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>2336.900000000034</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>-815.08</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>45452972</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MMM.N</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
         <v>44460.88974537037</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>178.46</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>173</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>182.00</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2">
         <v>44462.69393518518</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>182.06</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-0.02</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1.8</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>155882</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>359.9999999999994</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>2696.900000000033</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>-813.2800000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>45479303</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AAPL.O</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2">
         <v>44461.91586805556</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>145.39</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>140.39</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
         <v>147.5</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>44470.70491898148</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>140.39</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>-0.18</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-10</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>759374</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>-500</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>2196.900000000033</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>-823.2800000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>45479654</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FB.O</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
         <v>44461.92072916667</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>342.88</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>330</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>350.00</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
         <v>44463.78413194444</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>350</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-0.1</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>14.24</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>160998</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>100</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>712.0000000000005</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>2908.900000000034</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>-809.0400000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>45503129</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>EURGBP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
         <v>44462.82488425926</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.85425</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.84</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.85562</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2">
         <v>44462.99254629629</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.85563</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>946.53</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>14486</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>10000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>13.80000000000048</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>2922.700000000034</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>137.4899999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>45710008</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
         <v>44474.65277777778</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1.3629</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1.38</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.35700</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2">
         <v>44475.45119212963</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>1.357</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>-6.53</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>1180</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>68983</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>10000</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>59.00000000000016</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>2981.700000000034</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>1317.49</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>45710165</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>EURGBP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2">
         <v>44474.65787037037</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.85103</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.84</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.853</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>44474.65787037037</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>0.85103</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>10000</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>2981.700000000034</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>1317.49</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>45710311</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>EURJPY</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2">
         <v>44474.66394675926</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>129.063</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>129.504</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
         <v>128.7</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2">
         <v>44475.34091435185</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>129.504</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-1.51</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-394.63</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>58490</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>100</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-44.10000000000025</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>2937.600000000034</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>922.8599999999998</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>45710474</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>GBPJPY</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2">
         <v>44474.66997685185</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>151.52</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>152</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>151.420</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="n">
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2">
         <v>44475.45991898148</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>151.42</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>-3.89</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>89.56</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>68251</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>100</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>10.00000000000227</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>2947.600000000036</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>1012.42</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>45747805</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2">
         <v>44475.77226851852</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.01</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>111.358</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>110.6</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>111.510</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="n">
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="2">
         <v>44476.51765046296</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>111.511</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>-7.46</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>564.55</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>64401</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>100</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>15.29999999999916</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>2962.900000000036</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>1576.97</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>45747887</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>AUDCHF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2">
         <v>44475.77394675926</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.67291</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.65</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.67391</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="n">
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2">
         <v>44475.86097222222</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.67391</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>430.93</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>7519</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>10000</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>10.00000000000001</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>2972.900000000036</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>2007.9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>45747976</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>AAL.O</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2">
         <v>44475.77726851852</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>20.44</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>19.01</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>20.91</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2">
         <v>44475.77726851852</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>20.44</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>100</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>2972.900000000036</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>2007.9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>45748041</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TM.N</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2">
         <v>44475.77931712963</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>166.14</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>161</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>168.00</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="n">
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="2">
         <v>44476.68825231482</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>168.12</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>9.9</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>78532</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>100</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>198.0000000000018</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>3170.900000000037</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>2017.8</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>45748113</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>IR.N</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2">
         <v>44475.78070601852</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>50.34</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>49.3</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>51.05</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="n">
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
         <v>44475.85696759259</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>51.05</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>2.13</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>6589</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>100</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>70.99999999999937</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>3241.900000000037</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>2019.93</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>45748170</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PFE.N</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2">
         <v>44475.78193287037</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>41.81</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>41</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>42.05</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="n">
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="2">
         <v>44476.68825231482</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>42.37</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>-0.01</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>2.24</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>78306</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>100</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>55.99999999999952</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>3297.900000000036</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>2022.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>